--- a/Input/_freemind.xlsx
+++ b/Input/_freemind.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -118,14 +118,19 @@
   <dimension ref="A65536:A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
